--- a/Document/프로젝트일정.xlsx
+++ b/Document/프로젝트일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\week13_pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268A4B6-3A38-48E7-A9A5-1CBBA70ABC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD785B4-CB50-49A9-A57C-4554056A717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="1850" windowWidth="19200" windowHeight="11260" activeTab="1" xr2:uid="{20353562-A6F2-495B-91D3-66A654BFF9FB}"/>
+    <workbookView xWindow="4400" yWindow="4400" windowWidth="19200" windowHeight="11260" xr2:uid="{20353562-A6F2-495B-91D3-66A654BFF9FB}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트일정" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>태스크</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>필요데이터 정의</t>
-  </si>
-  <si>
-    <t>데이터 수집 및 정합성 검증</t>
   </si>
   <si>
     <t>분석용 데이터준비</t>
@@ -172,15 +169,290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 수행 계획서, WBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위험목록 / 위험관리 계획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 정의서, 획득계획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터
+베이스
+(DB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 사용자 위치 정보 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS를 통한 사용자의 위치 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2. 관광지 위치 정보 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 축적된 각 관광지의 위치 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3. 텍스트 크롤링 (SNS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최신 트렌드를 파악할 수 있는 SNS 텍스트 주기적 수집 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4. 텍스트 크롤링 (블로그)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최신 트렌드를 파악할 수 있는 블로그 텍스트 주기적 수집 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5. 이미지 크롤링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최신 트렌드를 파악할 수 있는 포털 이미지 주기적 수집 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. 기존 데이터 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에서 기존의 데이터들 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2. 사용자 위치 정보 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 위치 정보 저장 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3. 관광지 위치 정보 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광지의 위치 정보 저장 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4. 추가적 데이터 관리 (텍스트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가되는 크롤링한 텍스트를 DB에 저장 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5. 추가적 데이터 관리 (이미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가되는 크롤링한 이미지를 DB에 저장 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 정보 서칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1. 이미지 정보 서칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 이미지에 맞는 관광지 정보 서칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2. 키워드 정보 서칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 텍스트에 맞는 관광지 정보 서칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3. 숙박업소 정보 서칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박업소 정보 제공, 가격 비교 정보 서칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4. 필터 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치, 카테고리 등 조건을 만족하는 관광지 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1. 요청한 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 정보에 맞는 데이터 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 관광지 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1. 카테고리 기준 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 카테고리에 해당되는 핫플레이스 정보 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2. 핫플레이스 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 축적된 데이터를 바탕으로 특정 기간 동안의 핫플레이스 정보 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3. 여행 코스 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광지 위치와 누적된 데이터를 바탕으로 만들어진 적합한 코스 정보 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터
+모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 데이터 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1. 카테고리 분류 (이미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링한 이미지들을 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2. 카테고리 분류 (텍스트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링한 텍스트들을 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 데이터 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1. 빈도 기준 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링되는 횟수 카운팅 후, 특정 기준에 충족되는 데이터만 보존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2. 스팸 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고성 텍스트를 배제한 데이터만 보존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3. 감성분석 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감성분석을 통한 추천 가능한 데이터만 보존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 데이터 저장 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/4(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/5(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/6(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/7(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/8(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">프로젝트 수행 계획서, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="이사만루체 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>WBS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수집 및 정합성 검증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +505,30 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="이사만루체 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,12 +583,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -299,6 +596,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -308,7 +608,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1276,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD02AA-680B-4EA8-8D2C-A02485B11301}">
   <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1289,55 +1610,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="8" t="s">
-        <v>25</v>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1346,18 +1667,18 @@
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="8" t="s">
-        <v>37</v>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1366,264 +1687,250 @@
         <v>9</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="8" t="s">
-        <v>38</v>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="8" t="s">
-        <v>39</v>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="8" t="s">
-        <v>36</v>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="8" t="s">
-        <v>26</v>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="8" t="s">
-        <v>27</v>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="8" t="s">
-        <v>13</v>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="8" t="s">
-        <v>28</v>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="8" t="s">
-        <v>29</v>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="8" t="s">
-        <v>30</v>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="8" t="s">
-        <v>31</v>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="8" t="s">
-        <v>32</v>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="8" t="s">
-        <v>33</v>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1635,6 +1942,20 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1644,367 +1965,425 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97B8D6C-A2BF-4BAA-91DF-F444BC926801}">
-  <dimension ref="B2:O16"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="3" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="14" width="5.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.58203125" customWidth="1"/>
     <col min="15" max="15" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="8" t="s">
+    <row r="2" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="8" t="s">
+      <c r="C2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="C3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+      <c r="C18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="10"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="10"/>
+      <c r="C23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B24" s="10"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+  <mergeCells count="8">
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/프로젝트일정.xlsx
+++ b/Document/프로젝트일정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\week13_pm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\week13_pm\TEAM05-JOOONY-S\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD785B4-CB50-49A9-A57C-4554056A717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220EAB8F-FFC9-40DB-8D3A-A697ED46F0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="4400" windowWidth="19200" windowHeight="11260" xr2:uid="{20353562-A6F2-495B-91D3-66A654BFF9FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{20353562-A6F2-495B-91D3-66A654BFF9FB}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트일정" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>태스크</t>
   </si>
@@ -181,225 +181,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터
-베이스
-(DB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 데이터 수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1. 사용자 위치 정보 수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS를 통한 사용자의 위치 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2. 관광지 위치 정보 수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB에 축적된 각 관광지의 위치 파악</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3. 텍스트 크롤링 (SNS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">최신 트렌드를 파악할 수 있는 SNS 텍스트 주기적 수집 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4. 텍스트 크롤링 (블로그)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">최신 트렌드를 파악할 수 있는 블로그 텍스트 주기적 수집 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-5. 이미지 크롤링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">최신 트렌드를 파악할 수 있는 포털 이미지 주기적 수집 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1. 기존 데이터 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB에서 기존의 데이터들 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2. 사용자 위치 정보 수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 위치 정보 저장 및 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3. 관광지 위치 정보 수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관광지의 위치 정보 저장 및 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-4. 추가적 데이터 관리 (텍스트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가되는 크롤링한 텍스트를 DB에 저장 및 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-5. 추가적 데이터 관리 (이미지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가되는 크롤링한 이미지를 DB에 저장 및 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 정보 서칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1. 이미지 정보 서칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 입력한 이미지에 맞는 관광지 정보 서칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2. 키워드 정보 서칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 입력한 텍스트에 맞는 관광지 정보 서칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3. 숙박업소 정보 서칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙박업소 정보 제공, 가격 비교 정보 서칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4. 필터 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위치, 카테고리 등 조건을 만족하는 관광지 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1. 요청한 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 입력한 정보에 맞는 데이터 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 관광지 추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1. 카테고리 기준 추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 입력한 카테고리에 해당되는 핫플레이스 정보 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-2. 핫플레이스 추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB에 축적된 데이터를 바탕으로 특정 기간 동안의 핫플레이스 정보 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-3. 여행 코스 추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관광지 위치와 누적된 데이터를 바탕으로 만들어진 적합한 코스 정보 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터
-모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 데이터 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1. 카테고리 분류 (이미지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링한 이미지들을 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-2. 카테고리 분류 (텍스트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링한 텍스트들을 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 데이터 필터링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1. 빈도 기준 필터링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>크롤링되는 횟수 카운팅 후, 특정 기준에 충족되는 데이터만 보존</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7-2. 스팸 필터링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>광고성 텍스트를 배제한 데이터만 보존</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7-3. 감성분석 필터링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성분석을 통한 추천 가능한 데이터만 보존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주요업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,30 +198,6 @@
   </si>
   <si>
     <t>세부업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 데이터 저장 및 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/4(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/5(수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/6(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/7(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/8(토)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,12 +220,200 @@
     <t>데이터 수집 및 정합성 검증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>분석기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가 및 전개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 정보 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 크롤링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 및 관광지 위치 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최신 트렌드를 파악할 수 있는 데이터 주기적 수집 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 저장 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 데이터 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 발전 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 성과 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터링 기준 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 입력 정보(이미지, 카테고리)에 맞는 데이터 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링한 이미지, 텍스트 카테고리 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비즈니스 이해 및 자료 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석 프로젝트 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 수행 계획 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제를 인식하고 관련 자료 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트를 정의하고 모델 평가 기준 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 수행 일정 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 수정 사항 및 발전 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 분석 및 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 기반 서칭 및 추천 시스템 분석 및 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 테스트 및 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현한 서칭 및 추천 시스템 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에서 기존 데이터 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가로 크롤링한 텍스트 및 이미지를 DB에 저장 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 데이터 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계 바탕으로 시스템 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석 이슈 식별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 대응 계획 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 대응할 계획 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 시 예상되는 이슈 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +480,23 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -554,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -577,13 +547,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,38 +615,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1597,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD02AA-680B-4EA8-8D2C-A02485B11301}">
   <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1610,43 +1662,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1662,11 +1714,11 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1678,15 +1730,15 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="4" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1697,18 +1749,18 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1719,16 +1771,16 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="5"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1739,18 +1791,18 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1766,11 +1818,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1781,16 +1833,16 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1801,16 +1853,16 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1821,16 +1873,16 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1841,18 +1893,18 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1863,16 +1915,16 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1883,18 +1935,18 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1905,16 +1957,16 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1931,6 +1983,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1943,18 +2007,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1965,425 +2017,288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97B8D6C-A2BF-4BAA-91DF-F444BC926801}">
-  <dimension ref="B2:J25"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="5.58203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.58203125" customWidth="1"/>
+    <col min="10" max="10" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:7" ht="30" x14ac:dyDescent="0.45">
+      <c r="B1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="22"/>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="22"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="22"/>
+      <c r="C6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="23"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="24"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="24"/>
+      <c r="C10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="24"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="24"/>
+      <c r="C13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13" t="s">
+    </row>
+    <row r="14" spans="2:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="24"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="10"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="10"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="10"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11" t="s">
+    </row>
+    <row r="15" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="25"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="25"/>
+      <c r="C17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="25"/>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E19" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="25"/>
+      <c r="C20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="25"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="10"/>
-      <c r="C17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B18" s="10"/>
-      <c r="C18" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="10"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B20" s="10"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="10"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B23" s="10"/>
-      <c r="C23" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B24" s="10"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B25" s="10"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="E21" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C18:C20"/>
+  <mergeCells count="13">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
